--- a/project/main/xlsx_files/course_technical_inspection_journal.xlsx
+++ b/project/main/xlsx_files/course_technical_inspection_journal.xlsx
@@ -1,124 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Office-EIT\Office-EIT\project\main\xlsx_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC829D1-5E57-456D-8EC8-9EC9FD86406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="_tax1">#REF!</definedName>
+    <definedName name="_tax2">#REF!</definedName>
+    <definedName name="_tax3">#REF!</definedName>
+    <definedName name="_tax4">#REF!</definedName>
+    <definedName name="boxes">#REF!</definedName>
+    <definedName name="button_area_1">#REF!</definedName>
+    <definedName name="CCT">#REF!</definedName>
+    <definedName name="celltips_area">#REF!</definedName>
+    <definedName name="data1">#REF!</definedName>
+    <definedName name="data10">#REF!</definedName>
+    <definedName name="data11">#REF!</definedName>
+    <definedName name="data12">#REF!</definedName>
+    <definedName name="data13">#REF!</definedName>
+    <definedName name="data14">#REF!</definedName>
+    <definedName name="data15">#REF!</definedName>
+    <definedName name="data16">#REF!</definedName>
+    <definedName name="data17">#REF!</definedName>
+    <definedName name="data18">#REF!</definedName>
+    <definedName name="data19">#REF!</definedName>
+    <definedName name="data2">#REF!</definedName>
+    <definedName name="data20">#REF!</definedName>
+    <definedName name="data21">#REF!</definedName>
+    <definedName name="data22">#REF!</definedName>
+    <definedName name="data23">#REF!</definedName>
+    <definedName name="data24">#REF!</definedName>
+    <definedName name="data25">#REF!</definedName>
+    <definedName name="data26">#REF!</definedName>
+    <definedName name="data27">#REF!</definedName>
+    <definedName name="data28">#REF!</definedName>
+    <definedName name="data29">#REF!</definedName>
+    <definedName name="data3">#REF!</definedName>
+    <definedName name="data30">#REF!</definedName>
+    <definedName name="data31">#REF!</definedName>
+    <definedName name="data32">#REF!</definedName>
+    <definedName name="data33">#REF!</definedName>
+    <definedName name="data34">#REF!</definedName>
+    <definedName name="data35">#REF!</definedName>
+    <definedName name="data36">#REF!</definedName>
+    <definedName name="data37">#REF!</definedName>
+    <definedName name="data38">#REF!</definedName>
+    <definedName name="data39">#REF!</definedName>
+    <definedName name="data4">#REF!</definedName>
+    <definedName name="data40">#REF!</definedName>
+    <definedName name="data41">#REF!</definedName>
+    <definedName name="data42">#REF!</definedName>
+    <definedName name="data43">#REF!</definedName>
+    <definedName name="data44">#REF!</definedName>
+    <definedName name="data45">#REF!</definedName>
+    <definedName name="data46">#REF!</definedName>
+    <definedName name="data47">#REF!</definedName>
+    <definedName name="data48">#REF!</definedName>
+    <definedName name="data49">#REF!</definedName>
+    <definedName name="data5">#REF!</definedName>
+    <definedName name="data50">#REF!</definedName>
+    <definedName name="data51">#REF!</definedName>
+    <definedName name="data52">#REF!</definedName>
+    <definedName name="data53">#REF!</definedName>
+    <definedName name="data54">#REF!</definedName>
+    <definedName name="data55">#REF!</definedName>
+    <definedName name="data56">#REF!</definedName>
+    <definedName name="data57">#REF!</definedName>
+    <definedName name="data58">#REF!</definedName>
     <definedName name="data59">#REF!</definedName>
+    <definedName name="data6">#REF!</definedName>
+    <definedName name="data60">#REF!</definedName>
+    <definedName name="data61">#REF!</definedName>
+    <definedName name="data62">#REF!</definedName>
+    <definedName name="data63">#REF!</definedName>
+    <definedName name="data64">#REF!</definedName>
+    <definedName name="data65">#REF!</definedName>
+    <definedName name="data66">#REF!</definedName>
+    <definedName name="data67">#REF!</definedName>
+    <definedName name="data68">#REF!</definedName>
+    <definedName name="data69">#REF!</definedName>
+    <definedName name="data7">#REF!</definedName>
+    <definedName name="data70">#REF!</definedName>
+    <definedName name="data8">#REF!</definedName>
+    <definedName name="data9">#REF!</definedName>
+    <definedName name="display_area_2">#REF!</definedName>
+    <definedName name="NO">#REF!</definedName>
+    <definedName name="qzqzqz10">#REF!</definedName>
+    <definedName name="qzqzqz11">#REF!</definedName>
+    <definedName name="qzqzqz12">#REF!</definedName>
+    <definedName name="qzqzqz13">#REF!</definedName>
+    <definedName name="qzqzqz14">#REF!</definedName>
+    <definedName name="qzqzqz15">#REF!</definedName>
+    <definedName name="qzqzqz16">#REF!</definedName>
+    <definedName name="qzqzqz17">#REF!</definedName>
+    <definedName name="qzqzqz18">#REF!</definedName>
+    <definedName name="qzqzqz19">#REF!</definedName>
+    <definedName name="qzqzqz20">#REF!</definedName>
+    <definedName name="qzqzqz21">#REF!</definedName>
+    <definedName name="qzqzqz22">#REF!</definedName>
+    <definedName name="qzqzqz23">#REF!</definedName>
+    <definedName name="qzqzqz24">#REF!</definedName>
+    <definedName name="qzqzqz25">#REF!</definedName>
+    <definedName name="qzqzqz26">#REF!</definedName>
+    <definedName name="qzqzqz27">#REF!</definedName>
+    <definedName name="qzqzqz28">#REF!</definedName>
+    <definedName name="qzqzqz29">#REF!</definedName>
+    <definedName name="qzqzqz30">#REF!</definedName>
+    <definedName name="qzqzqz31">#REF!</definedName>
+    <definedName name="qzqzqz32">#REF!</definedName>
+    <definedName name="qzqzqz6">#REF!</definedName>
+    <definedName name="qzqzqz7">#REF!</definedName>
+    <definedName name="qzqzqz8">#REF!</definedName>
     <definedName name="qzqzqz9">#REF!</definedName>
-    <definedName name="data19">#REF!</definedName>
-    <definedName name="qzqzqz26">#REF!</definedName>
-    <definedName name="data3">#REF!</definedName>
-    <definedName name="data6">#REF!</definedName>
-    <definedName name="NO">#REF!</definedName>
-    <definedName name="qzqzqz23">#REF!</definedName>
-    <definedName name="data61">#REF!</definedName>
-    <definedName name="data22">#REF!</definedName>
-    <definedName name="data1">#REF!</definedName>
-    <definedName name="qzqzqz15">#REF!</definedName>
-    <definedName name="celltips_area">#REF!</definedName>
-    <definedName name="qzqzqz29">#REF!</definedName>
-    <definedName name="qzqzqz21">#REF!</definedName>
-    <definedName name="data12">#REF!</definedName>
-    <definedName name="qzqzqz31">#REF!</definedName>
-    <definedName name="data17">#REF!</definedName>
-    <definedName name="data13">#REF!</definedName>
-    <definedName name="data21">#REF!</definedName>
-    <definedName name="data31">#REF!</definedName>
-    <definedName name="qzqzqz22">#REF!</definedName>
-    <definedName name="data67">#REF!</definedName>
-    <definedName name="data57">#REF!</definedName>
-    <definedName name="_tax4">#REF!</definedName>
-    <definedName name="qzqzqz16">#REF!</definedName>
-    <definedName name="data63">#REF!</definedName>
-    <definedName name="data23">#REF!</definedName>
-    <definedName name="data5">#REF!</definedName>
-    <definedName name="data10">#REF!</definedName>
-    <definedName name="data66">#REF!</definedName>
-    <definedName name="data26">#REF!</definedName>
-    <definedName name="qzqzqz14">#REF!</definedName>
-    <definedName name="data58">#REF!</definedName>
-    <definedName name="data49">#REF!</definedName>
-    <definedName name="data15">#REF!</definedName>
-    <definedName name="data69">#REF!</definedName>
-    <definedName name="qzqzqz28">#REF!</definedName>
-    <definedName name="data68">#REF!</definedName>
-    <definedName name="data47">#REF!</definedName>
-    <definedName name="data41">#REF!</definedName>
-    <definedName name="qzqzqz10">#REF!</definedName>
-    <definedName name="data40">#REF!</definedName>
-    <definedName name="data34">#REF!</definedName>
-    <definedName name="button_area_1">#REF!</definedName>
-    <definedName name="data14">#REF!</definedName>
-    <definedName name="data70">#REF!</definedName>
-    <definedName name="_tax1">#REF!</definedName>
-    <definedName name="data29">#REF!</definedName>
-    <definedName name="data8">#REF!</definedName>
-    <definedName name="data16">#REF!</definedName>
-    <definedName name="data43">#REF!</definedName>
-    <definedName name="boxes">#REF!</definedName>
-    <definedName name="data53">#REF!</definedName>
     <definedName name="TOT">#REF!</definedName>
-    <definedName name="data20">#REF!</definedName>
-    <definedName name="data28">#REF!</definedName>
-    <definedName name="qzqzqz32">#REF!</definedName>
-    <definedName name="data38">#REF!</definedName>
-    <definedName name="qzqzqz17">#REF!</definedName>
-    <definedName name="data48">#REF!</definedName>
-    <definedName name="data65">#REF!</definedName>
-    <definedName name="data24">#REF!</definedName>
-    <definedName name="data62">#REF!</definedName>
-    <definedName name="data56">#REF!</definedName>
-    <definedName name="data36">#REF!</definedName>
-    <definedName name="data35">#REF!</definedName>
-    <definedName name="data4">#REF!</definedName>
-    <definedName name="data42">#REF!</definedName>
-    <definedName name="data52">#REF!</definedName>
-    <definedName name="qzqzqz24">#REF!</definedName>
-    <definedName name="data60">#REF!</definedName>
-    <definedName name="qzqzqz11">#REF!</definedName>
-    <definedName name="qzqzqz8">#REF!</definedName>
-    <definedName name="data44">#REF!</definedName>
-    <definedName name="data55">#REF!</definedName>
-    <definedName name="data2">#REF!</definedName>
-    <definedName name="qzqzqz20">#REF!</definedName>
-    <definedName name="CCT">#REF!</definedName>
-    <definedName name="qzqzqz19">#REF!</definedName>
-    <definedName name="data11">#REF!</definedName>
-    <definedName name="data18">#REF!</definedName>
-    <definedName name="data7">#REF!</definedName>
-    <definedName name="data33">#REF!</definedName>
-    <definedName name="data50">#REF!</definedName>
-    <definedName name="qzqzqz25">#REF!</definedName>
-    <definedName name="qzqzqz18">#REF!</definedName>
-    <definedName name="qzqzqz7">#REF!</definedName>
-    <definedName name="data51">#REF!</definedName>
-    <definedName name="data39">#REF!</definedName>
-    <definedName name="data54">#REF!</definedName>
-    <definedName name="data30">#REF!</definedName>
-    <definedName name="qzqzqz13">#REF!</definedName>
-    <definedName name="data45">#REF!</definedName>
-    <definedName name="data32">#REF!</definedName>
-    <definedName name="_tax3">#REF!</definedName>
-    <definedName name="display_area_2">#REF!</definedName>
-    <definedName name="data9">#REF!</definedName>
-    <definedName name="data27">#REF!</definedName>
-    <definedName name="qzqzqz27">#REF!</definedName>
-    <definedName name="data37">#REF!</definedName>
-    <definedName name="data25">#REF!</definedName>
-    <definedName name="data64">#REF!</definedName>
-    <definedName name="qzqzqz30">#REF!</definedName>
-    <definedName name="qzqzqz12">#REF!</definedName>
-    <definedName name="qzqzqz6">#REF!</definedName>
-    <definedName name="data46">#REF!</definedName>
-    <definedName name="_tax2">#REF!</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgbzHHIkTvaH5k325VS+SeW2Jofmg=="/>
@@ -132,18 +139,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">ДНЕВНИК ЗА  ПРЕДПЪТЕН ТЕХНИЧЕСКИ  ПРЕГЛЕД НА ППС В  
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="14.0"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -180,50 +187,53 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -233,31 +243,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="14">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -267,6 +289,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -278,22 +301,30 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -302,22 +333,31 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -326,9 +366,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -343,6 +385,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -351,9 +394,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -368,111 +413,83 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="AutoOpen Stub Data"/>
-      <sheetName val="Customize Your Invoice"/>
-      <sheetName val="Invoice"/>
-      <sheetName val="Macros"/>
-      <sheetName val="ATW"/>
-      <sheetName val="Lock"/>
-      <sheetName val="Intl Data Table"/>
-      <sheetName val="TemplateInformation"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Customize"/>
-      <definedName name="Nada"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -662,337 +679,339 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
-    <col customWidth="1" min="3" max="3" width="22.86"/>
-    <col customWidth="1" min="4" max="4" width="15.57"/>
-    <col customWidth="1" min="5" max="5" width="15.86"/>
-    <col customWidth="1" min="6" max="6" width="30.14"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -1001,7 +1020,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1010,7 +1029,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1019,7 +1038,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1028,7 +1047,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -1037,7 +1056,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -1046,7 +1065,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -1055,7 +1074,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -1064,7 +1083,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -1073,7 +1092,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -1082,7 +1101,7 @@
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -1091,7 +1110,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -1100,7 +1119,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -1109,7 +1128,7 @@
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -1118,7 +1137,7 @@
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -1127,7 +1146,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -1136,7 +1155,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -1145,7 +1164,7 @@
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -1154,7 +1173,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -1163,7 +1182,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -1172,7 +1191,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -1181,7 +1200,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -1190,7 +1209,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -1199,7 +1218,7 @@
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -1208,7 +1227,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -1217,7 +1236,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -1226,7 +1245,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -1235,7 +1254,7 @@
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -1244,7 +1263,7 @@
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -1253,7 +1272,7 @@
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -1262,7 +1281,7 @@
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -1271,7 +1290,7 @@
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -1280,7 +1299,7 @@
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -1289,7 +1308,7 @@
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -1298,7 +1317,7 @@
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -1307,7 +1326,7 @@
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -1316,7 +1335,7 @@
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -1325,7 +1344,7 @@
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -1334,7 +1353,7 @@
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -1343,7 +1362,7 @@
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -1352,7 +1371,7 @@
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -1361,7 +1380,7 @@
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -1370,7 +1389,7 @@
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -1379,7 +1398,7 @@
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -1388,7 +1407,7 @@
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -1397,7 +1416,7 @@
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -1406,7 +1425,7 @@
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -1415,7 +1434,7 @@
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -1424,7 +1443,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -1433,7 +1452,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -1442,7 +1461,7 @@
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -1451,7 +1470,7 @@
       <c r="F83" s="22"/>
       <c r="G83" s="22"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -1460,7 +1479,7 @@
       <c r="F84" s="22"/>
       <c r="G84" s="22"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -1469,7 +1488,7 @@
       <c r="F85" s="22"/>
       <c r="G85" s="22"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -1478,7 +1497,7 @@
       <c r="F86" s="22"/>
       <c r="G86" s="22"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -1487,7 +1506,7 @@
       <c r="F87" s="22"/>
       <c r="G87" s="22"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -1496,7 +1515,7 @@
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -1505,7 +1524,7 @@
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -1514,7 +1533,7 @@
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -1523,7 +1542,7 @@
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -1532,7 +1551,7 @@
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -1541,7 +1560,7 @@
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -1550,7 +1569,7 @@
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -1559,7 +1578,7 @@
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -1568,7 +1587,7 @@
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -1577,7 +1596,7 @@
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -1586,7 +1605,7 @@
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -1595,7 +1614,7 @@
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -1604,7 +1623,7 @@
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -1613,7 +1632,7 @@
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -1622,7 +1641,7 @@
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="22"/>
@@ -1631,7 +1650,7 @@
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="22"/>
@@ -1640,7 +1659,7 @@
       <c r="F104" s="22"/>
       <c r="G104" s="22"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -1649,7 +1668,7 @@
       <c r="F105" s="22"/>
       <c r="G105" s="22"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -1658,7 +1677,7 @@
       <c r="F106" s="22"/>
       <c r="G106" s="22"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -1667,7 +1686,7 @@
       <c r="F107" s="22"/>
       <c r="G107" s="22"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
@@ -1676,7 +1695,7 @@
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
@@ -1685,7 +1704,7 @@
       <c r="F109" s="22"/>
       <c r="G109" s="22"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -1694,7 +1713,7 @@
       <c r="F110" s="22"/>
       <c r="G110" s="22"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -1703,7 +1722,7 @@
       <c r="F111" s="22"/>
       <c r="G111" s="22"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -1712,7 +1731,7 @@
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -1721,7 +1740,7 @@
       <c r="F113" s="22"/>
       <c r="G113" s="22"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -1730,7 +1749,7 @@
       <c r="F114" s="22"/>
       <c r="G114" s="22"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -1739,7 +1758,7 @@
       <c r="F115" s="22"/>
       <c r="G115" s="22"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -1748,7 +1767,7 @@
       <c r="F116" s="22"/>
       <c r="G116" s="22"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -1757,7 +1776,7 @@
       <c r="F117" s="22"/>
       <c r="G117" s="22"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
@@ -1766,7 +1785,7 @@
       <c r="F118" s="22"/>
       <c r="G118" s="22"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -1775,7 +1794,7 @@
       <c r="F119" s="22"/>
       <c r="G119" s="22"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -1784,7 +1803,7 @@
       <c r="F120" s="22"/>
       <c r="G120" s="22"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
@@ -1793,7 +1812,7 @@
       <c r="F121" s="22"/>
       <c r="G121" s="22"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
@@ -1802,7 +1821,7 @@
       <c r="F122" s="22"/>
       <c r="G122" s="22"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
@@ -1811,7 +1830,7 @@
       <c r="F123" s="22"/>
       <c r="G123" s="22"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
@@ -1820,7 +1839,7 @@
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
@@ -1829,7 +1848,7 @@
       <c r="F125" s="22"/>
       <c r="G125" s="22"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
@@ -1838,7 +1857,7 @@
       <c r="F126" s="22"/>
       <c r="G126" s="22"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -1847,7 +1866,7 @@
       <c r="F127" s="22"/>
       <c r="G127" s="22"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="22"/>
@@ -1856,7 +1875,7 @@
       <c r="F128" s="22"/>
       <c r="G128" s="22"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
@@ -1865,7 +1884,7 @@
       <c r="F129" s="22"/>
       <c r="G129" s="22"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
@@ -1874,7 +1893,7 @@
       <c r="F130" s="22"/>
       <c r="G130" s="22"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="22"/>
@@ -1883,7 +1902,7 @@
       <c r="F131" s="22"/>
       <c r="G131" s="22"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
@@ -1892,7 +1911,7 @@
       <c r="F132" s="22"/>
       <c r="G132" s="22"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
@@ -1901,7 +1920,7 @@
       <c r="F133" s="22"/>
       <c r="G133" s="22"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
@@ -1910,7 +1929,7 @@
       <c r="F134" s="22"/>
       <c r="G134" s="22"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
@@ -1919,7 +1938,7 @@
       <c r="F135" s="22"/>
       <c r="G135" s="22"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
@@ -1928,7 +1947,7 @@
       <c r="F136" s="22"/>
       <c r="G136" s="22"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
@@ -1937,7 +1956,7 @@
       <c r="F137" s="22"/>
       <c r="G137" s="22"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
@@ -1946,7 +1965,7 @@
       <c r="F138" s="22"/>
       <c r="G138" s="22"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
@@ -1955,7 +1974,7 @@
       <c r="F139" s="22"/>
       <c r="G139" s="22"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
@@ -1964,7 +1983,7 @@
       <c r="F140" s="22"/>
       <c r="G140" s="22"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
@@ -1973,7 +1992,7 @@
       <c r="F141" s="22"/>
       <c r="G141" s="22"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
@@ -1982,7 +2001,7 @@
       <c r="F142" s="22"/>
       <c r="G142" s="22"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
@@ -1991,7 +2010,7 @@
       <c r="F143" s="22"/>
       <c r="G143" s="22"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
@@ -2000,7 +2019,7 @@
       <c r="F144" s="22"/>
       <c r="G144" s="22"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
@@ -2009,7 +2028,7 @@
       <c r="F145" s="22"/>
       <c r="G145" s="22"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
@@ -2018,7 +2037,7 @@
       <c r="F146" s="22"/>
       <c r="G146" s="22"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
@@ -2027,7 +2046,7 @@
       <c r="F147" s="22"/>
       <c r="G147" s="22"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
@@ -2036,7 +2055,7 @@
       <c r="F148" s="22"/>
       <c r="G148" s="22"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
@@ -2045,7 +2064,7 @@
       <c r="F149" s="22"/>
       <c r="G149" s="22"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
@@ -2054,7 +2073,7 @@
       <c r="F150" s="22"/>
       <c r="G150" s="22"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
@@ -2063,7 +2082,7 @@
       <c r="F151" s="22"/>
       <c r="G151" s="22"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
@@ -2072,7 +2091,7 @@
       <c r="F152" s="22"/>
       <c r="G152" s="22"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
@@ -2081,7 +2100,7 @@
       <c r="F153" s="22"/>
       <c r="G153" s="22"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
@@ -2090,7 +2109,7 @@
       <c r="F154" s="22"/>
       <c r="G154" s="22"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
@@ -2099,7 +2118,7 @@
       <c r="F155" s="22"/>
       <c r="G155" s="22"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
@@ -2108,7 +2127,7 @@
       <c r="F156" s="22"/>
       <c r="G156" s="22"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
@@ -2117,7 +2136,7 @@
       <c r="F157" s="22"/>
       <c r="G157" s="22"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
@@ -2126,7 +2145,7 @@
       <c r="F158" s="22"/>
       <c r="G158" s="22"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
@@ -2135,7 +2154,7 @@
       <c r="F159" s="22"/>
       <c r="G159" s="22"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="22"/>
@@ -2144,7 +2163,7 @@
       <c r="F160" s="22"/>
       <c r="G160" s="22"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="22"/>
@@ -2153,7 +2172,7 @@
       <c r="F161" s="22"/>
       <c r="G161" s="22"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="22"/>
@@ -2162,7 +2181,7 @@
       <c r="F162" s="22"/>
       <c r="G162" s="22"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="22"/>
@@ -2171,7 +2190,7 @@
       <c r="F163" s="22"/>
       <c r="G163" s="22"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="22"/>
@@ -2180,7 +2199,7 @@
       <c r="F164" s="22"/>
       <c r="G164" s="22"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="22"/>
@@ -2189,7 +2208,7 @@
       <c r="F165" s="22"/>
       <c r="G165" s="22"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
@@ -2198,7 +2217,7 @@
       <c r="F166" s="22"/>
       <c r="G166" s="22"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="22"/>
@@ -2207,7 +2226,7 @@
       <c r="F167" s="22"/>
       <c r="G167" s="22"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="22"/>
@@ -2216,7 +2235,7 @@
       <c r="F168" s="22"/>
       <c r="G168" s="22"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="22"/>
@@ -2225,7 +2244,7 @@
       <c r="F169" s="22"/>
       <c r="G169" s="22"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
@@ -2234,7 +2253,7 @@
       <c r="F170" s="22"/>
       <c r="G170" s="22"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="22"/>
@@ -2243,7 +2262,7 @@
       <c r="F171" s="22"/>
       <c r="G171" s="22"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="22"/>
@@ -2252,7 +2271,7 @@
       <c r="F172" s="22"/>
       <c r="G172" s="22"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="22"/>
@@ -2261,7 +2280,7 @@
       <c r="F173" s="22"/>
       <c r="G173" s="22"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="22"/>
@@ -2270,7 +2289,7 @@
       <c r="F174" s="22"/>
       <c r="G174" s="22"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="22"/>
@@ -2279,7 +2298,7 @@
       <c r="F175" s="22"/>
       <c r="G175" s="22"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="22"/>
@@ -2288,7 +2307,7 @@
       <c r="F176" s="22"/>
       <c r="G176" s="22"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="22"/>
@@ -2297,7 +2316,7 @@
       <c r="F177" s="22"/>
       <c r="G177" s="22"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="22"/>
@@ -2306,7 +2325,7 @@
       <c r="F178" s="22"/>
       <c r="G178" s="22"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="22"/>
@@ -2315,7 +2334,7 @@
       <c r="F179" s="22"/>
       <c r="G179" s="22"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="22"/>
@@ -2324,7 +2343,7 @@
       <c r="F180" s="22"/>
       <c r="G180" s="22"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="22"/>
@@ -2333,7 +2352,7 @@
       <c r="F181" s="22"/>
       <c r="G181" s="22"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="22"/>
@@ -2342,7 +2361,7 @@
       <c r="F182" s="22"/>
       <c r="G182" s="22"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="22"/>
@@ -2351,7 +2370,7 @@
       <c r="F183" s="22"/>
       <c r="G183" s="22"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="22"/>
@@ -2360,7 +2379,7 @@
       <c r="F184" s="22"/>
       <c r="G184" s="22"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="22"/>
@@ -2369,7 +2388,7 @@
       <c r="F185" s="22"/>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="22"/>
@@ -2378,7 +2397,7 @@
       <c r="F186" s="22"/>
       <c r="G186" s="22"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="22"/>
@@ -2387,7 +2406,7 @@
       <c r="F187" s="22"/>
       <c r="G187" s="22"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="22"/>
@@ -2396,7 +2415,7 @@
       <c r="F188" s="22"/>
       <c r="G188" s="22"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="22"/>
@@ -2405,7 +2424,7 @@
       <c r="F189" s="22"/>
       <c r="G189" s="22"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="22"/>
@@ -2414,7 +2433,7 @@
       <c r="F190" s="22"/>
       <c r="G190" s="22"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="22"/>
@@ -2423,7 +2442,7 @@
       <c r="F191" s="22"/>
       <c r="G191" s="22"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="22"/>
@@ -2432,7 +2451,7 @@
       <c r="F192" s="22"/>
       <c r="G192" s="22"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="22"/>
@@ -2441,7 +2460,7 @@
       <c r="F193" s="22"/>
       <c r="G193" s="22"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="22"/>
@@ -2450,7 +2469,7 @@
       <c r="F194" s="22"/>
       <c r="G194" s="22"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="22"/>
@@ -2459,7 +2478,7 @@
       <c r="F195" s="22"/>
       <c r="G195" s="22"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="22"/>
@@ -2468,7 +2487,7 @@
       <c r="F196" s="22"/>
       <c r="G196" s="22"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="22"/>
@@ -2477,7 +2496,7 @@
       <c r="F197" s="22"/>
       <c r="G197" s="22"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="22"/>
@@ -2486,7 +2505,7 @@
       <c r="F198" s="22"/>
       <c r="G198" s="22"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="22"/>
@@ -2495,7 +2514,7 @@
       <c r="F199" s="22"/>
       <c r="G199" s="22"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="22"/>
@@ -2504,7 +2523,7 @@
       <c r="F200" s="22"/>
       <c r="G200" s="22"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="22"/>
@@ -2513,7 +2532,7 @@
       <c r="F201" s="22"/>
       <c r="G201" s="22"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1">
       <c r="A202" s="22"/>
       <c r="B202" s="22"/>
       <c r="C202" s="22"/>
@@ -2522,7 +2541,7 @@
       <c r="F202" s="22"/>
       <c r="G202" s="22"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1">
       <c r="A203" s="22"/>
       <c r="B203" s="22"/>
       <c r="C203" s="22"/>
@@ -2531,7 +2550,7 @@
       <c r="F203" s="22"/>
       <c r="G203" s="22"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1">
       <c r="A204" s="22"/>
       <c r="B204" s="22"/>
       <c r="C204" s="22"/>
@@ -2540,7 +2559,7 @@
       <c r="F204" s="22"/>
       <c r="G204" s="22"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1">
       <c r="A205" s="22"/>
       <c r="B205" s="22"/>
       <c r="C205" s="22"/>
@@ -2549,7 +2568,7 @@
       <c r="F205" s="22"/>
       <c r="G205" s="22"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1">
       <c r="A206" s="22"/>
       <c r="B206" s="22"/>
       <c r="C206" s="22"/>
@@ -2558,7 +2577,7 @@
       <c r="F206" s="22"/>
       <c r="G206" s="22"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1">
       <c r="A207" s="22"/>
       <c r="B207" s="22"/>
       <c r="C207" s="22"/>
@@ -2567,7 +2586,7 @@
       <c r="F207" s="22"/>
       <c r="G207" s="22"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1">
       <c r="A208" s="22"/>
       <c r="B208" s="22"/>
       <c r="C208" s="22"/>
@@ -2576,7 +2595,7 @@
       <c r="F208" s="22"/>
       <c r="G208" s="22"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1">
       <c r="A209" s="22"/>
       <c r="B209" s="22"/>
       <c r="C209" s="22"/>
@@ -2585,7 +2604,7 @@
       <c r="F209" s="22"/>
       <c r="G209" s="22"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1">
       <c r="A210" s="22"/>
       <c r="B210" s="22"/>
       <c r="C210" s="22"/>
@@ -2594,7 +2613,7 @@
       <c r="F210" s="22"/>
       <c r="G210" s="22"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1">
       <c r="A211" s="22"/>
       <c r="B211" s="22"/>
       <c r="C211" s="22"/>
@@ -2603,7 +2622,7 @@
       <c r="F211" s="22"/>
       <c r="G211" s="22"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1">
       <c r="A212" s="22"/>
       <c r="B212" s="22"/>
       <c r="C212" s="22"/>
@@ -2612,7 +2631,7 @@
       <c r="F212" s="22"/>
       <c r="G212" s="22"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1">
       <c r="A213" s="22"/>
       <c r="B213" s="22"/>
       <c r="C213" s="22"/>
@@ -2621,7 +2640,7 @@
       <c r="F213" s="22"/>
       <c r="G213" s="22"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1">
       <c r="A214" s="22"/>
       <c r="B214" s="22"/>
       <c r="C214" s="22"/>
@@ -2630,7 +2649,7 @@
       <c r="F214" s="22"/>
       <c r="G214" s="22"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1">
       <c r="A215" s="22"/>
       <c r="B215" s="22"/>
       <c r="C215" s="22"/>
@@ -2639,7 +2658,7 @@
       <c r="F215" s="22"/>
       <c r="G215" s="22"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1">
       <c r="A216" s="22"/>
       <c r="B216" s="22"/>
       <c r="C216" s="22"/>
@@ -2648,7 +2667,7 @@
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1">
       <c r="A217" s="22"/>
       <c r="B217" s="22"/>
       <c r="C217" s="22"/>
@@ -2657,7 +2676,7 @@
       <c r="F217" s="22"/>
       <c r="G217" s="22"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1">
       <c r="A218" s="22"/>
       <c r="B218" s="22"/>
       <c r="C218" s="22"/>
@@ -2666,7 +2685,7 @@
       <c r="F218" s="22"/>
       <c r="G218" s="22"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1">
       <c r="A219" s="22"/>
       <c r="B219" s="22"/>
       <c r="C219" s="22"/>
@@ -2675,7 +2694,7 @@
       <c r="F219" s="22"/>
       <c r="G219" s="22"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1">
       <c r="A220" s="22"/>
       <c r="B220" s="22"/>
       <c r="C220" s="22"/>
@@ -2684,7 +2703,7 @@
       <c r="F220" s="22"/>
       <c r="G220" s="22"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1">
       <c r="A221" s="22"/>
       <c r="B221" s="22"/>
       <c r="C221" s="22"/>
@@ -2693,7 +2712,7 @@
       <c r="F221" s="22"/>
       <c r="G221" s="22"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1">
       <c r="A222" s="22"/>
       <c r="B222" s="22"/>
       <c r="C222" s="22"/>
@@ -2702,7 +2721,7 @@
       <c r="F222" s="22"/>
       <c r="G222" s="22"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1">
       <c r="A223" s="22"/>
       <c r="B223" s="22"/>
       <c r="C223" s="22"/>
@@ -2711,7 +2730,7 @@
       <c r="F223" s="22"/>
       <c r="G223" s="22"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1">
       <c r="A224" s="22"/>
       <c r="B224" s="22"/>
       <c r="C224" s="22"/>
@@ -2720,7 +2739,7 @@
       <c r="F224" s="22"/>
       <c r="G224" s="22"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:7" ht="15.75" customHeight="1">
       <c r="A225" s="22"/>
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
@@ -2729,7 +2748,7 @@
       <c r="F225" s="22"/>
       <c r="G225" s="22"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:7" ht="15.75" customHeight="1">
       <c r="A226" s="22"/>
       <c r="B226" s="22"/>
       <c r="C226" s="22"/>
@@ -2738,7 +2757,7 @@
       <c r="F226" s="22"/>
       <c r="G226" s="22"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:7" ht="15.75" customHeight="1">
       <c r="A227" s="22"/>
       <c r="B227" s="22"/>
       <c r="C227" s="22"/>
@@ -2747,7 +2766,7 @@
       <c r="F227" s="22"/>
       <c r="G227" s="22"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:7" ht="15.75" customHeight="1">
       <c r="A228" s="22"/>
       <c r="B228" s="22"/>
       <c r="C228" s="22"/>
@@ -2756,7 +2775,7 @@
       <c r="F228" s="22"/>
       <c r="G228" s="22"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:7" ht="15.75" customHeight="1">
       <c r="A229" s="22"/>
       <c r="B229" s="22"/>
       <c r="C229" s="22"/>
@@ -2765,7 +2784,7 @@
       <c r="F229" s="22"/>
       <c r="G229" s="22"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:7" ht="15.75" customHeight="1">
       <c r="A230" s="22"/>
       <c r="B230" s="22"/>
       <c r="C230" s="22"/>
@@ -2774,7 +2793,7 @@
       <c r="F230" s="22"/>
       <c r="G230" s="22"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:7" ht="15.75" customHeight="1">
       <c r="A231" s="22"/>
       <c r="B231" s="22"/>
       <c r="C231" s="22"/>
@@ -2783,7 +2802,7 @@
       <c r="F231" s="22"/>
       <c r="G231" s="22"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:7" ht="15.75" customHeight="1">
       <c r="A232" s="22"/>
       <c r="B232" s="22"/>
       <c r="C232" s="22"/>
@@ -2792,7 +2811,7 @@
       <c r="F232" s="22"/>
       <c r="G232" s="22"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:7" ht="15.75" customHeight="1">
       <c r="A233" s="22"/>
       <c r="B233" s="22"/>
       <c r="C233" s="22"/>
@@ -2801,7 +2820,7 @@
       <c r="F233" s="22"/>
       <c r="G233" s="22"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:7" ht="15.75" customHeight="1">
       <c r="A234" s="22"/>
       <c r="B234" s="22"/>
       <c r="C234" s="22"/>
@@ -2810,7 +2829,7 @@
       <c r="F234" s="22"/>
       <c r="G234" s="22"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:7" ht="15.75" customHeight="1">
       <c r="A235" s="22"/>
       <c r="B235" s="22"/>
       <c r="C235" s="22"/>
@@ -2819,7 +2838,7 @@
       <c r="F235" s="22"/>
       <c r="G235" s="22"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:7" ht="15.75" customHeight="1">
       <c r="A236" s="22"/>
       <c r="B236" s="22"/>
       <c r="C236" s="22"/>
@@ -2828,7 +2847,7 @@
       <c r="F236" s="22"/>
       <c r="G236" s="22"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:7" ht="15.75" customHeight="1">
       <c r="A237" s="22"/>
       <c r="B237" s="22"/>
       <c r="C237" s="22"/>
@@ -2837,7 +2856,7 @@
       <c r="F237" s="22"/>
       <c r="G237" s="22"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:7" ht="15.75" customHeight="1">
       <c r="A238" s="22"/>
       <c r="B238" s="22"/>
       <c r="C238" s="22"/>
@@ -2846,7 +2865,7 @@
       <c r="F238" s="22"/>
       <c r="G238" s="22"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:7" ht="15.75" customHeight="1">
       <c r="A239" s="22"/>
       <c r="B239" s="22"/>
       <c r="C239" s="22"/>
@@ -2855,7 +2874,7 @@
       <c r="F239" s="22"/>
       <c r="G239" s="22"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:7" ht="15.75" customHeight="1">
       <c r="A240" s="22"/>
       <c r="B240" s="22"/>
       <c r="C240" s="22"/>
@@ -2864,7 +2883,7 @@
       <c r="F240" s="22"/>
       <c r="G240" s="22"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:7" ht="15.75" customHeight="1">
       <c r="A241" s="22"/>
       <c r="B241" s="22"/>
       <c r="C241" s="22"/>
@@ -2873,7 +2892,7 @@
       <c r="F241" s="22"/>
       <c r="G241" s="22"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:7" ht="15.75" customHeight="1">
       <c r="A242" s="22"/>
       <c r="B242" s="22"/>
       <c r="C242" s="22"/>
@@ -2882,7 +2901,7 @@
       <c r="F242" s="22"/>
       <c r="G242" s="22"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:7" ht="15.75" customHeight="1">
       <c r="A243" s="22"/>
       <c r="B243" s="22"/>
       <c r="C243" s="22"/>
@@ -2891,7 +2910,7 @@
       <c r="F243" s="22"/>
       <c r="G243" s="22"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:7" ht="15.75" customHeight="1">
       <c r="A244" s="22"/>
       <c r="B244" s="22"/>
       <c r="C244" s="22"/>
@@ -2900,7 +2919,7 @@
       <c r="F244" s="22"/>
       <c r="G244" s="22"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:7" ht="15.75" customHeight="1">
       <c r="A245" s="22"/>
       <c r="B245" s="22"/>
       <c r="C245" s="22"/>
@@ -2909,7 +2928,7 @@
       <c r="F245" s="22"/>
       <c r="G245" s="22"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:7" ht="15.75" customHeight="1">
       <c r="A246" s="22"/>
       <c r="B246" s="22"/>
       <c r="C246" s="22"/>
@@ -2918,7 +2937,7 @@
       <c r="F246" s="22"/>
       <c r="G246" s="22"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:7" ht="15.75" customHeight="1">
       <c r="A247" s="22"/>
       <c r="B247" s="22"/>
       <c r="C247" s="22"/>
@@ -2927,7 +2946,7 @@
       <c r="F247" s="22"/>
       <c r="G247" s="22"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:7" ht="15.75" customHeight="1">
       <c r="A248" s="22"/>
       <c r="B248" s="22"/>
       <c r="C248" s="22"/>
@@ -2936,7 +2955,7 @@
       <c r="F248" s="22"/>
       <c r="G248" s="22"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:7" ht="15.75" customHeight="1">
       <c r="A249" s="22"/>
       <c r="B249" s="22"/>
       <c r="C249" s="22"/>
@@ -2945,7 +2964,7 @@
       <c r="F249" s="22"/>
       <c r="G249" s="22"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:7" ht="15.75" customHeight="1">
       <c r="A250" s="22"/>
       <c r="B250" s="22"/>
       <c r="C250" s="22"/>
@@ -2954,7 +2973,7 @@
       <c r="F250" s="22"/>
       <c r="G250" s="22"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:7" ht="15.75" customHeight="1">
       <c r="A251" s="22"/>
       <c r="B251" s="22"/>
       <c r="C251" s="22"/>
@@ -2963,7 +2982,7 @@
       <c r="F251" s="22"/>
       <c r="G251" s="22"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:7" ht="15.75" customHeight="1">
       <c r="A252" s="22"/>
       <c r="B252" s="22"/>
       <c r="C252" s="22"/>
@@ -2972,7 +2991,7 @@
       <c r="F252" s="22"/>
       <c r="G252" s="22"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:7" ht="15.75" customHeight="1">
       <c r="A253" s="22"/>
       <c r="B253" s="22"/>
       <c r="C253" s="22"/>
@@ -2981,7 +3000,7 @@
       <c r="F253" s="22"/>
       <c r="G253" s="22"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:7" ht="15.75" customHeight="1">
       <c r="A254" s="22"/>
       <c r="B254" s="22"/>
       <c r="C254" s="22"/>
@@ -2990,7 +3009,7 @@
       <c r="F254" s="22"/>
       <c r="G254" s="22"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:7" ht="15.75" customHeight="1">
       <c r="A255" s="22"/>
       <c r="B255" s="22"/>
       <c r="C255" s="22"/>
@@ -2999,7 +3018,7 @@
       <c r="F255" s="22"/>
       <c r="G255" s="22"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:7" ht="15.75" customHeight="1">
       <c r="A256" s="22"/>
       <c r="B256" s="22"/>
       <c r="C256" s="22"/>
@@ -3008,7 +3027,7 @@
       <c r="F256" s="22"/>
       <c r="G256" s="22"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:7" ht="15.75" customHeight="1">
       <c r="A257" s="22"/>
       <c r="B257" s="22"/>
       <c r="C257" s="22"/>
@@ -3017,7 +3036,7 @@
       <c r="F257" s="22"/>
       <c r="G257" s="22"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:7" ht="15.75" customHeight="1">
       <c r="A258" s="22"/>
       <c r="B258" s="22"/>
       <c r="C258" s="22"/>
@@ -3026,7 +3045,7 @@
       <c r="F258" s="22"/>
       <c r="G258" s="22"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:7" ht="15.75" customHeight="1">
       <c r="A259" s="22"/>
       <c r="B259" s="22"/>
       <c r="C259" s="22"/>
@@ -3035,7 +3054,7 @@
       <c r="F259" s="22"/>
       <c r="G259" s="22"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:7" ht="15.75" customHeight="1">
       <c r="A260" s="22"/>
       <c r="B260" s="22"/>
       <c r="C260" s="22"/>
@@ -3044,7 +3063,7 @@
       <c r="F260" s="22"/>
       <c r="G260" s="22"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:7" ht="15.75" customHeight="1">
       <c r="A261" s="22"/>
       <c r="B261" s="22"/>
       <c r="C261" s="22"/>
@@ -3053,7 +3072,7 @@
       <c r="F261" s="22"/>
       <c r="G261" s="22"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:7" ht="15.75" customHeight="1">
       <c r="A262" s="22"/>
       <c r="B262" s="22"/>
       <c r="C262" s="22"/>
@@ -3062,7 +3081,7 @@
       <c r="F262" s="22"/>
       <c r="G262" s="22"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:7" ht="15.75" customHeight="1">
       <c r="A263" s="22"/>
       <c r="B263" s="22"/>
       <c r="C263" s="22"/>
@@ -3071,7 +3090,7 @@
       <c r="F263" s="22"/>
       <c r="G263" s="22"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:7" ht="15.75" customHeight="1">
       <c r="A264" s="22"/>
       <c r="B264" s="22"/>
       <c r="C264" s="22"/>
@@ -3080,7 +3099,7 @@
       <c r="F264" s="22"/>
       <c r="G264" s="22"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:7" ht="15.75" customHeight="1">
       <c r="A265" s="22"/>
       <c r="B265" s="22"/>
       <c r="C265" s="22"/>
@@ -3089,7 +3108,7 @@
       <c r="F265" s="22"/>
       <c r="G265" s="22"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:7" ht="15.75" customHeight="1">
       <c r="A266" s="22"/>
       <c r="B266" s="22"/>
       <c r="C266" s="22"/>
@@ -3098,7 +3117,7 @@
       <c r="F266" s="22"/>
       <c r="G266" s="22"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="22"/>
       <c r="B267" s="22"/>
       <c r="C267" s="22"/>
@@ -3107,7 +3126,7 @@
       <c r="F267" s="22"/>
       <c r="G267" s="22"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:7" ht="15.75" customHeight="1">
       <c r="A268" s="22"/>
       <c r="B268" s="22"/>
       <c r="C268" s="22"/>
@@ -3116,7 +3135,7 @@
       <c r="F268" s="22"/>
       <c r="G268" s="22"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:7" ht="15.75" customHeight="1">
       <c r="A269" s="22"/>
       <c r="B269" s="22"/>
       <c r="C269" s="22"/>
@@ -3125,7 +3144,7 @@
       <c r="F269" s="22"/>
       <c r="G269" s="22"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:7" ht="15.75" customHeight="1">
       <c r="A270" s="22"/>
       <c r="B270" s="22"/>
       <c r="C270" s="22"/>
@@ -3134,7 +3153,7 @@
       <c r="F270" s="22"/>
       <c r="G270" s="22"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:7" ht="15.75" customHeight="1">
       <c r="A271" s="22"/>
       <c r="B271" s="22"/>
       <c r="C271" s="22"/>
@@ -3143,7 +3162,7 @@
       <c r="F271" s="22"/>
       <c r="G271" s="22"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" customHeight="1">
       <c r="A272" s="22"/>
       <c r="B272" s="22"/>
       <c r="C272" s="22"/>
@@ -3152,7 +3171,7 @@
       <c r="F272" s="22"/>
       <c r="G272" s="22"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="22"/>
       <c r="B273" s="22"/>
       <c r="C273" s="22"/>
@@ -3161,7 +3180,7 @@
       <c r="F273" s="22"/>
       <c r="G273" s="22"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:7" ht="15.75" customHeight="1">
       <c r="A274" s="22"/>
       <c r="B274" s="22"/>
       <c r="C274" s="22"/>
@@ -3170,7 +3189,7 @@
       <c r="F274" s="22"/>
       <c r="G274" s="22"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:7" ht="15.75" customHeight="1">
       <c r="A275" s="22"/>
       <c r="B275" s="22"/>
       <c r="C275" s="22"/>
@@ -3179,7 +3198,7 @@
       <c r="F275" s="22"/>
       <c r="G275" s="22"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:7" ht="15.75" customHeight="1">
       <c r="A276" s="22"/>
       <c r="B276" s="22"/>
       <c r="C276" s="22"/>
@@ -3188,7 +3207,7 @@
       <c r="F276" s="22"/>
       <c r="G276" s="22"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:7" ht="15.75" customHeight="1">
       <c r="A277" s="22"/>
       <c r="B277" s="22"/>
       <c r="C277" s="22"/>
@@ -3197,7 +3216,7 @@
       <c r="F277" s="22"/>
       <c r="G277" s="22"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:7" ht="15.75" customHeight="1">
       <c r="A278" s="22"/>
       <c r="B278" s="22"/>
       <c r="C278" s="22"/>
@@ -3206,7 +3225,7 @@
       <c r="F278" s="22"/>
       <c r="G278" s="22"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:7" ht="15.75" customHeight="1">
       <c r="A279" s="22"/>
       <c r="B279" s="22"/>
       <c r="C279" s="22"/>
@@ -3215,7 +3234,7 @@
       <c r="F279" s="22"/>
       <c r="G279" s="22"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:7" ht="15.75" customHeight="1">
       <c r="A280" s="22"/>
       <c r="B280" s="22"/>
       <c r="C280" s="22"/>
@@ -3224,7 +3243,7 @@
       <c r="F280" s="22"/>
       <c r="G280" s="22"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:7" ht="15.75" customHeight="1">
       <c r="A281" s="22"/>
       <c r="B281" s="22"/>
       <c r="C281" s="22"/>
@@ -3233,7 +3252,7 @@
       <c r="F281" s="22"/>
       <c r="G281" s="22"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:7" ht="15.75" customHeight="1">
       <c r="A282" s="22"/>
       <c r="B282" s="22"/>
       <c r="C282" s="22"/>
@@ -3242,7 +3261,7 @@
       <c r="F282" s="22"/>
       <c r="G282" s="22"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:7" ht="15.75" customHeight="1">
       <c r="A283" s="22"/>
       <c r="B283" s="22"/>
       <c r="C283" s="22"/>
@@ -3251,7 +3270,7 @@
       <c r="F283" s="22"/>
       <c r="G283" s="22"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:7" ht="15.75" customHeight="1">
       <c r="A284" s="22"/>
       <c r="B284" s="22"/>
       <c r="C284" s="22"/>
@@ -3260,7 +3279,7 @@
       <c r="F284" s="22"/>
       <c r="G284" s="22"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:7" ht="15.75" customHeight="1">
       <c r="A285" s="22"/>
       <c r="B285" s="22"/>
       <c r="C285" s="22"/>
@@ -3269,7 +3288,7 @@
       <c r="F285" s="22"/>
       <c r="G285" s="22"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:7" ht="15.75" customHeight="1">
       <c r="A286" s="22"/>
       <c r="B286" s="22"/>
       <c r="C286" s="22"/>
@@ -3278,7 +3297,7 @@
       <c r="F286" s="22"/>
       <c r="G286" s="22"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:7" ht="15.75" customHeight="1">
       <c r="A287" s="22"/>
       <c r="B287" s="22"/>
       <c r="C287" s="22"/>
@@ -3287,7 +3306,7 @@
       <c r="F287" s="22"/>
       <c r="G287" s="22"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:7" ht="15.75" customHeight="1">
       <c r="A288" s="22"/>
       <c r="B288" s="22"/>
       <c r="C288" s="22"/>
@@ -3296,7 +3315,7 @@
       <c r="F288" s="22"/>
       <c r="G288" s="22"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" customHeight="1">
       <c r="A289" s="22"/>
       <c r="B289" s="22"/>
       <c r="C289" s="22"/>
@@ -3305,7 +3324,7 @@
       <c r="F289" s="22"/>
       <c r="G289" s="22"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" customHeight="1">
       <c r="A290" s="22"/>
       <c r="B290" s="22"/>
       <c r="C290" s="22"/>
@@ -3314,7 +3333,7 @@
       <c r="F290" s="22"/>
       <c r="G290" s="22"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" customHeight="1">
       <c r="A291" s="22"/>
       <c r="B291" s="22"/>
       <c r="C291" s="22"/>
@@ -3323,7 +3342,7 @@
       <c r="F291" s="22"/>
       <c r="G291" s="22"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" customHeight="1">
       <c r="A292" s="22"/>
       <c r="B292" s="22"/>
       <c r="C292" s="22"/>
@@ -3332,7 +3351,7 @@
       <c r="F292" s="22"/>
       <c r="G292" s="22"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" customHeight="1">
       <c r="A293" s="22"/>
       <c r="B293" s="22"/>
       <c r="C293" s="22"/>
@@ -3341,7 +3360,7 @@
       <c r="F293" s="22"/>
       <c r="G293" s="22"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" customHeight="1">
       <c r="A294" s="22"/>
       <c r="B294" s="22"/>
       <c r="C294" s="22"/>
@@ -3350,7 +3369,7 @@
       <c r="F294" s="22"/>
       <c r="G294" s="22"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" customHeight="1">
       <c r="A295" s="22"/>
       <c r="B295" s="22"/>
       <c r="C295" s="22"/>
@@ -3359,7 +3378,7 @@
       <c r="F295" s="22"/>
       <c r="G295" s="22"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:7" ht="15.75" customHeight="1">
       <c r="A296" s="22"/>
       <c r="B296" s="22"/>
       <c r="C296" s="22"/>
@@ -3368,7 +3387,7 @@
       <c r="F296" s="22"/>
       <c r="G296" s="22"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" customHeight="1">
       <c r="A297" s="22"/>
       <c r="B297" s="22"/>
       <c r="C297" s="22"/>
@@ -3377,7 +3396,7 @@
       <c r="F297" s="22"/>
       <c r="G297" s="22"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" customHeight="1">
       <c r="A298" s="22"/>
       <c r="B298" s="22"/>
       <c r="C298" s="22"/>
@@ -3386,7 +3405,7 @@
       <c r="F298" s="22"/>
       <c r="G298" s="22"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" customHeight="1">
       <c r="A299" s="22"/>
       <c r="B299" s="22"/>
       <c r="C299" s="22"/>
@@ -3395,7 +3414,7 @@
       <c r="F299" s="22"/>
       <c r="G299" s="22"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" customHeight="1">
       <c r="A300" s="22"/>
       <c r="B300" s="22"/>
       <c r="C300" s="22"/>
@@ -3404,7 +3423,7 @@
       <c r="F300" s="22"/>
       <c r="G300" s="22"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" customHeight="1">
       <c r="A301" s="22"/>
       <c r="B301" s="22"/>
       <c r="C301" s="22"/>
@@ -3413,7 +3432,7 @@
       <c r="F301" s="22"/>
       <c r="G301" s="22"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" customHeight="1">
       <c r="A302" s="22"/>
       <c r="B302" s="22"/>
       <c r="C302" s="22"/>
@@ -3422,7 +3441,7 @@
       <c r="F302" s="22"/>
       <c r="G302" s="22"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" customHeight="1">
       <c r="A303" s="22"/>
       <c r="B303" s="22"/>
       <c r="C303" s="22"/>
@@ -3431,7 +3450,7 @@
       <c r="F303" s="22"/>
       <c r="G303" s="22"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:7" ht="15.75" customHeight="1">
       <c r="A304" s="22"/>
       <c r="B304" s="22"/>
       <c r="C304" s="22"/>
@@ -3440,7 +3459,7 @@
       <c r="F304" s="22"/>
       <c r="G304" s="22"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" customHeight="1">
       <c r="A305" s="22"/>
       <c r="B305" s="22"/>
       <c r="C305" s="22"/>
@@ -3449,7 +3468,7 @@
       <c r="F305" s="22"/>
       <c r="G305" s="22"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" customHeight="1">
       <c r="A306" s="22"/>
       <c r="B306" s="22"/>
       <c r="C306" s="22"/>
@@ -3458,7 +3477,7 @@
       <c r="F306" s="22"/>
       <c r="G306" s="22"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" customHeight="1">
       <c r="A307" s="22"/>
       <c r="B307" s="22"/>
       <c r="C307" s="22"/>
@@ -3467,7 +3486,7 @@
       <c r="F307" s="22"/>
       <c r="G307" s="22"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:7" ht="15.75" customHeight="1">
       <c r="A308" s="22"/>
       <c r="B308" s="22"/>
       <c r="C308" s="22"/>
@@ -3476,7 +3495,7 @@
       <c r="F308" s="22"/>
       <c r="G308" s="22"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:7" ht="15.75" customHeight="1">
       <c r="A309" s="22"/>
       <c r="B309" s="22"/>
       <c r="C309" s="22"/>
@@ -3485,7 +3504,7 @@
       <c r="F309" s="22"/>
       <c r="G309" s="22"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" customHeight="1">
       <c r="A310" s="22"/>
       <c r="B310" s="22"/>
       <c r="C310" s="22"/>
@@ -3494,7 +3513,7 @@
       <c r="F310" s="22"/>
       <c r="G310" s="22"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:7" ht="15.75" customHeight="1">
       <c r="A311" s="22"/>
       <c r="B311" s="22"/>
       <c r="C311" s="22"/>
@@ -3503,7 +3522,7 @@
       <c r="F311" s="22"/>
       <c r="G311" s="22"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:7" ht="15.75" customHeight="1">
       <c r="A312" s="22"/>
       <c r="B312" s="22"/>
       <c r="C312" s="22"/>
@@ -3512,7 +3531,7 @@
       <c r="F312" s="22"/>
       <c r="G312" s="22"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" customHeight="1">
       <c r="A313" s="22"/>
       <c r="B313" s="22"/>
       <c r="C313" s="22"/>
@@ -3521,7 +3540,7 @@
       <c r="F313" s="22"/>
       <c r="G313" s="22"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" customHeight="1">
       <c r="A314" s="22"/>
       <c r="B314" s="22"/>
       <c r="C314" s="22"/>
@@ -3530,7 +3549,7 @@
       <c r="F314" s="22"/>
       <c r="G314" s="22"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" customHeight="1">
       <c r="A315" s="22"/>
       <c r="B315" s="22"/>
       <c r="C315" s="22"/>
@@ -3539,7 +3558,7 @@
       <c r="F315" s="22"/>
       <c r="G315" s="22"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" customHeight="1">
       <c r="A316" s="22"/>
       <c r="B316" s="22"/>
       <c r="C316" s="22"/>
@@ -3548,7 +3567,7 @@
       <c r="F316" s="22"/>
       <c r="G316" s="22"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:7" ht="15.75" customHeight="1">
       <c r="A317" s="22"/>
       <c r="B317" s="22"/>
       <c r="C317" s="22"/>
@@ -3557,7 +3576,7 @@
       <c r="F317" s="22"/>
       <c r="G317" s="22"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:7" ht="15.75" customHeight="1">
       <c r="A318" s="22"/>
       <c r="B318" s="22"/>
       <c r="C318" s="22"/>
@@ -3566,7 +3585,7 @@
       <c r="F318" s="22"/>
       <c r="G318" s="22"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:7" ht="15.75" customHeight="1">
       <c r="A319" s="22"/>
       <c r="B319" s="22"/>
       <c r="C319" s="22"/>
@@ -3575,7 +3594,7 @@
       <c r="F319" s="22"/>
       <c r="G319" s="22"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:7" ht="15.75" customHeight="1">
       <c r="A320" s="22"/>
       <c r="B320" s="22"/>
       <c r="C320" s="22"/>
@@ -3584,7 +3603,7 @@
       <c r="F320" s="22"/>
       <c r="G320" s="22"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:7" ht="15.75" customHeight="1">
       <c r="A321" s="22"/>
       <c r="B321" s="22"/>
       <c r="C321" s="22"/>
@@ -3593,7 +3612,7 @@
       <c r="F321" s="22"/>
       <c r="G321" s="22"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:7" ht="15.75" customHeight="1">
       <c r="A322" s="22"/>
       <c r="B322" s="22"/>
       <c r="C322" s="22"/>
@@ -3602,7 +3621,7 @@
       <c r="F322" s="22"/>
       <c r="G322" s="22"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:7" ht="15.75" customHeight="1">
       <c r="A323" s="22"/>
       <c r="B323" s="22"/>
       <c r="C323" s="22"/>
@@ -3611,7 +3630,7 @@
       <c r="F323" s="22"/>
       <c r="G323" s="22"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:7" ht="15.75" customHeight="1">
       <c r="A324" s="22"/>
       <c r="B324" s="22"/>
       <c r="C324" s="22"/>
@@ -3620,7 +3639,7 @@
       <c r="F324" s="22"/>
       <c r="G324" s="22"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:7" ht="15.75" customHeight="1">
       <c r="A325" s="22"/>
       <c r="B325" s="22"/>
       <c r="C325" s="22"/>
@@ -3629,7 +3648,7 @@
       <c r="F325" s="22"/>
       <c r="G325" s="22"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:7" ht="15.75" customHeight="1">
       <c r="A326" s="22"/>
       <c r="B326" s="22"/>
       <c r="C326" s="22"/>
@@ -3638,7 +3657,7 @@
       <c r="F326" s="22"/>
       <c r="G326" s="22"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:7" ht="15.75" customHeight="1">
       <c r="A327" s="22"/>
       <c r="B327" s="22"/>
       <c r="C327" s="22"/>
@@ -3647,7 +3666,7 @@
       <c r="F327" s="22"/>
       <c r="G327" s="22"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:7" ht="15.75" customHeight="1">
       <c r="A328" s="22"/>
       <c r="B328" s="22"/>
       <c r="C328" s="22"/>
@@ -3656,7 +3675,7 @@
       <c r="F328" s="22"/>
       <c r="G328" s="22"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:7" ht="15.75" customHeight="1">
       <c r="A329" s="22"/>
       <c r="B329" s="22"/>
       <c r="C329" s="22"/>
@@ -3665,7 +3684,7 @@
       <c r="F329" s="22"/>
       <c r="G329" s="22"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:7" ht="15.75" customHeight="1">
       <c r="A330" s="22"/>
       <c r="B330" s="22"/>
       <c r="C330" s="22"/>
@@ -3674,7 +3693,7 @@
       <c r="F330" s="22"/>
       <c r="G330" s="22"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:7" ht="15.75" customHeight="1">
       <c r="A331" s="22"/>
       <c r="B331" s="22"/>
       <c r="C331" s="22"/>
@@ -3683,7 +3702,7 @@
       <c r="F331" s="22"/>
       <c r="G331" s="22"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:7" ht="15.75" customHeight="1">
       <c r="A332" s="22"/>
       <c r="B332" s="22"/>
       <c r="C332" s="22"/>
@@ -3692,7 +3711,7 @@
       <c r="F332" s="22"/>
       <c r="G332" s="22"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:7" ht="15.75" customHeight="1">
       <c r="A333" s="22"/>
       <c r="B333" s="22"/>
       <c r="C333" s="22"/>
@@ -3701,7 +3720,7 @@
       <c r="F333" s="22"/>
       <c r="G333" s="22"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:7" ht="15.75" customHeight="1">
       <c r="A334" s="22"/>
       <c r="B334" s="22"/>
       <c r="C334" s="22"/>
@@ -3710,7 +3729,7 @@
       <c r="F334" s="22"/>
       <c r="G334" s="22"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:7" ht="15.75" customHeight="1">
       <c r="A335" s="22"/>
       <c r="B335" s="22"/>
       <c r="C335" s="22"/>
@@ -3719,7 +3738,7 @@
       <c r="F335" s="22"/>
       <c r="G335" s="22"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:7" ht="15.75" customHeight="1">
       <c r="A336" s="22"/>
       <c r="B336" s="22"/>
       <c r="C336" s="22"/>
@@ -3728,7 +3747,7 @@
       <c r="F336" s="22"/>
       <c r="G336" s="22"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:7" ht="15.75" customHeight="1">
       <c r="A337" s="22"/>
       <c r="B337" s="22"/>
       <c r="C337" s="22"/>
@@ -3737,7 +3756,7 @@
       <c r="F337" s="22"/>
       <c r="G337" s="22"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:7" ht="15.75" customHeight="1">
       <c r="A338" s="22"/>
       <c r="B338" s="22"/>
       <c r="C338" s="22"/>
@@ -3746,7 +3765,7 @@
       <c r="F338" s="22"/>
       <c r="G338" s="22"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:7" ht="15.75" customHeight="1">
       <c r="A339" s="22"/>
       <c r="B339" s="22"/>
       <c r="C339" s="22"/>
@@ -3755,7 +3774,7 @@
       <c r="F339" s="22"/>
       <c r="G339" s="22"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:7" ht="15.75" customHeight="1">
       <c r="A340" s="22"/>
       <c r="B340" s="22"/>
       <c r="C340" s="22"/>
@@ -3764,7 +3783,7 @@
       <c r="F340" s="22"/>
       <c r="G340" s="22"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:7" ht="15.75" customHeight="1">
       <c r="A341" s="22"/>
       <c r="B341" s="22"/>
       <c r="C341" s="22"/>
@@ -3773,7 +3792,7 @@
       <c r="F341" s="22"/>
       <c r="G341" s="22"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:7" ht="15.75" customHeight="1">
       <c r="A342" s="22"/>
       <c r="B342" s="22"/>
       <c r="C342" s="22"/>
@@ -3782,7 +3801,7 @@
       <c r="F342" s="22"/>
       <c r="G342" s="22"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:7" ht="15.75" customHeight="1">
       <c r="A343" s="22"/>
       <c r="B343" s="22"/>
       <c r="C343" s="22"/>
@@ -3791,7 +3810,7 @@
       <c r="F343" s="22"/>
       <c r="G343" s="22"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:7" ht="15.75" customHeight="1">
       <c r="A344" s="22"/>
       <c r="B344" s="22"/>
       <c r="C344" s="22"/>
@@ -3800,7 +3819,7 @@
       <c r="F344" s="22"/>
       <c r="G344" s="22"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:7" ht="15.75" customHeight="1">
       <c r="A345" s="22"/>
       <c r="B345" s="22"/>
       <c r="C345" s="22"/>
@@ -3809,7 +3828,7 @@
       <c r="F345" s="22"/>
       <c r="G345" s="22"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:7" ht="15.75" customHeight="1">
       <c r="A346" s="22"/>
       <c r="B346" s="22"/>
       <c r="C346" s="22"/>
@@ -3818,7 +3837,7 @@
       <c r="F346" s="22"/>
       <c r="G346" s="22"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:7" ht="15.75" customHeight="1">
       <c r="A347" s="22"/>
       <c r="B347" s="22"/>
       <c r="C347" s="22"/>
@@ -3827,7 +3846,7 @@
       <c r="F347" s="22"/>
       <c r="G347" s="22"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:7" ht="15.75" customHeight="1">
       <c r="A348" s="22"/>
       <c r="B348" s="22"/>
       <c r="C348" s="22"/>
@@ -3836,7 +3855,7 @@
       <c r="F348" s="22"/>
       <c r="G348" s="22"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:7" ht="15.75" customHeight="1">
       <c r="A349" s="22"/>
       <c r="B349" s="22"/>
       <c r="C349" s="22"/>
@@ -3845,7 +3864,7 @@
       <c r="F349" s="22"/>
       <c r="G349" s="22"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:7" ht="15.75" customHeight="1">
       <c r="A350" s="22"/>
       <c r="B350" s="22"/>
       <c r="C350" s="22"/>
@@ -3854,7 +3873,7 @@
       <c r="F350" s="22"/>
       <c r="G350" s="22"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:7" ht="15.75" customHeight="1">
       <c r="A351" s="22"/>
       <c r="B351" s="22"/>
       <c r="C351" s="22"/>
@@ -3863,7 +3882,7 @@
       <c r="F351" s="22"/>
       <c r="G351" s="22"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:7" ht="15.75" customHeight="1">
       <c r="A352" s="22"/>
       <c r="B352" s="22"/>
       <c r="C352" s="22"/>
@@ -3872,7 +3891,7 @@
       <c r="F352" s="22"/>
       <c r="G352" s="22"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:7" ht="15.75" customHeight="1">
       <c r="A353" s="22"/>
       <c r="B353" s="22"/>
       <c r="C353" s="22"/>
@@ -3881,7 +3900,7 @@
       <c r="F353" s="22"/>
       <c r="G353" s="22"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:7" ht="15.75" customHeight="1">
       <c r="A354" s="22"/>
       <c r="B354" s="22"/>
       <c r="C354" s="22"/>
@@ -3890,7 +3909,7 @@
       <c r="F354" s="22"/>
       <c r="G354" s="22"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:7" ht="15.75" customHeight="1">
       <c r="A355" s="22"/>
       <c r="B355" s="22"/>
       <c r="C355" s="22"/>
@@ -3899,7 +3918,7 @@
       <c r="F355" s="22"/>
       <c r="G355" s="22"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:7" ht="15.75" customHeight="1">
       <c r="A356" s="22"/>
       <c r="B356" s="22"/>
       <c r="C356" s="22"/>
@@ -3908,7 +3927,7 @@
       <c r="F356" s="22"/>
       <c r="G356" s="22"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:7" ht="15.75" customHeight="1">
       <c r="A357" s="22"/>
       <c r="B357" s="22"/>
       <c r="C357" s="22"/>
@@ -3917,7 +3936,7 @@
       <c r="F357" s="22"/>
       <c r="G357" s="22"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:7" ht="15.75" customHeight="1">
       <c r="A358" s="22"/>
       <c r="B358" s="22"/>
       <c r="C358" s="22"/>
@@ -3926,7 +3945,7 @@
       <c r="F358" s="22"/>
       <c r="G358" s="22"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:7" ht="15.75" customHeight="1">
       <c r="A359" s="22"/>
       <c r="B359" s="22"/>
       <c r="C359" s="22"/>
@@ -3935,7 +3954,7 @@
       <c r="F359" s="22"/>
       <c r="G359" s="22"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:7" ht="15.75" customHeight="1">
       <c r="A360" s="22"/>
       <c r="B360" s="22"/>
       <c r="C360" s="22"/>
@@ -3944,7 +3963,7 @@
       <c r="F360" s="22"/>
       <c r="G360" s="22"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:7" ht="15.75" customHeight="1">
       <c r="A361" s="22"/>
       <c r="B361" s="22"/>
       <c r="C361" s="22"/>
@@ -3953,7 +3972,7 @@
       <c r="F361" s="22"/>
       <c r="G361" s="22"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:7" ht="15.75" customHeight="1">
       <c r="A362" s="22"/>
       <c r="B362" s="22"/>
       <c r="C362" s="22"/>
@@ -3962,7 +3981,7 @@
       <c r="F362" s="22"/>
       <c r="G362" s="22"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:7" ht="15.75" customHeight="1">
       <c r="A363" s="22"/>
       <c r="B363" s="22"/>
       <c r="C363" s="22"/>
@@ -3971,7 +3990,7 @@
       <c r="F363" s="22"/>
       <c r="G363" s="22"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:7" ht="15.75" customHeight="1">
       <c r="A364" s="22"/>
       <c r="B364" s="22"/>
       <c r="C364" s="22"/>
@@ -3980,7 +3999,7 @@
       <c r="F364" s="22"/>
       <c r="G364" s="22"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:7" ht="15.75" customHeight="1">
       <c r="A365" s="22"/>
       <c r="B365" s="22"/>
       <c r="C365" s="22"/>
@@ -3989,7 +4008,7 @@
       <c r="F365" s="22"/>
       <c r="G365" s="22"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:7" ht="15.75" customHeight="1">
       <c r="A366" s="22"/>
       <c r="B366" s="22"/>
       <c r="C366" s="22"/>
@@ -3998,7 +4017,7 @@
       <c r="F366" s="22"/>
       <c r="G366" s="22"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:7" ht="15.75" customHeight="1">
       <c r="A367" s="22"/>
       <c r="B367" s="22"/>
       <c r="C367" s="22"/>
@@ -4007,7 +4026,7 @@
       <c r="F367" s="22"/>
       <c r="G367" s="22"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:7" ht="15.75" customHeight="1">
       <c r="A368" s="22"/>
       <c r="B368" s="22"/>
       <c r="C368" s="22"/>
@@ -4016,7 +4035,7 @@
       <c r="F368" s="22"/>
       <c r="G368" s="22"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:7" ht="15.75" customHeight="1">
       <c r="A369" s="22"/>
       <c r="B369" s="22"/>
       <c r="C369" s="22"/>
@@ -4025,7 +4044,7 @@
       <c r="F369" s="22"/>
       <c r="G369" s="22"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:7" ht="15.75" customHeight="1">
       <c r="A370" s="22"/>
       <c r="B370" s="22"/>
       <c r="C370" s="22"/>
@@ -4034,7 +4053,7 @@
       <c r="F370" s="22"/>
       <c r="G370" s="22"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:7" ht="15.75" customHeight="1">
       <c r="A371" s="22"/>
       <c r="B371" s="22"/>
       <c r="C371" s="22"/>
@@ -4043,7 +4062,7 @@
       <c r="F371" s="22"/>
       <c r="G371" s="22"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:7" ht="15.75" customHeight="1">
       <c r="A372" s="22"/>
       <c r="B372" s="22"/>
       <c r="C372" s="22"/>
@@ -4052,7 +4071,7 @@
       <c r="F372" s="22"/>
       <c r="G372" s="22"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:7" ht="15.75" customHeight="1">
       <c r="A373" s="22"/>
       <c r="B373" s="22"/>
       <c r="C373" s="22"/>
@@ -4061,7 +4080,7 @@
       <c r="F373" s="22"/>
       <c r="G373" s="22"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:7" ht="15.75" customHeight="1">
       <c r="A374" s="22"/>
       <c r="B374" s="22"/>
       <c r="C374" s="22"/>
@@ -4070,7 +4089,7 @@
       <c r="F374" s="22"/>
       <c r="G374" s="22"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:7" ht="15.75" customHeight="1">
       <c r="A375" s="22"/>
       <c r="B375" s="22"/>
       <c r="C375" s="22"/>
@@ -4079,7 +4098,7 @@
       <c r="F375" s="22"/>
       <c r="G375" s="22"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:7" ht="15.75" customHeight="1">
       <c r="A376" s="22"/>
       <c r="B376" s="22"/>
       <c r="C376" s="22"/>
@@ -4088,7 +4107,7 @@
       <c r="F376" s="22"/>
       <c r="G376" s="22"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:7" ht="15.75" customHeight="1">
       <c r="A377" s="22"/>
       <c r="B377" s="22"/>
       <c r="C377" s="22"/>
@@ -4097,7 +4116,7 @@
       <c r="F377" s="22"/>
       <c r="G377" s="22"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="1:7" ht="15.75" customHeight="1">
       <c r="A378" s="22"/>
       <c r="B378" s="22"/>
       <c r="C378" s="22"/>
@@ -4106,7 +4125,7 @@
       <c r="F378" s="22"/>
       <c r="G378" s="22"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:7" ht="15.75" customHeight="1">
       <c r="A379" s="22"/>
       <c r="B379" s="22"/>
       <c r="C379" s="22"/>
@@ -4115,7 +4134,7 @@
       <c r="F379" s="22"/>
       <c r="G379" s="22"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:7" ht="15.75" customHeight="1">
       <c r="A380" s="22"/>
       <c r="B380" s="22"/>
       <c r="C380" s="22"/>
@@ -4124,7 +4143,7 @@
       <c r="F380" s="22"/>
       <c r="G380" s="22"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:7" ht="15.75" customHeight="1">
       <c r="A381" s="22"/>
       <c r="B381" s="22"/>
       <c r="C381" s="22"/>
@@ -4133,7 +4152,7 @@
       <c r="F381" s="22"/>
       <c r="G381" s="22"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:7" ht="15.75" customHeight="1">
       <c r="A382" s="22"/>
       <c r="B382" s="22"/>
       <c r="C382" s="22"/>
@@ -4142,7 +4161,7 @@
       <c r="F382" s="22"/>
       <c r="G382" s="22"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:7" ht="15.75" customHeight="1">
       <c r="A383" s="22"/>
       <c r="B383" s="22"/>
       <c r="C383" s="22"/>
@@ -4151,7 +4170,7 @@
       <c r="F383" s="22"/>
       <c r="G383" s="22"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:7" ht="15.75" customHeight="1">
       <c r="A384" s="22"/>
       <c r="B384" s="22"/>
       <c r="C384" s="22"/>
@@ -4160,7 +4179,7 @@
       <c r="F384" s="22"/>
       <c r="G384" s="22"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:7" ht="15.75" customHeight="1">
       <c r="A385" s="22"/>
       <c r="B385" s="22"/>
       <c r="C385" s="22"/>
@@ -4169,7 +4188,7 @@
       <c r="F385" s="22"/>
       <c r="G385" s="22"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:7" ht="15.75" customHeight="1">
       <c r="A386" s="22"/>
       <c r="B386" s="22"/>
       <c r="C386" s="22"/>
@@ -4178,7 +4197,7 @@
       <c r="F386" s="22"/>
       <c r="G386" s="22"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:7" ht="15.75" customHeight="1">
       <c r="A387" s="22"/>
       <c r="B387" s="22"/>
       <c r="C387" s="22"/>
@@ -4187,7 +4206,7 @@
       <c r="F387" s="22"/>
       <c r="G387" s="22"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:7" ht="15.75" customHeight="1">
       <c r="A388" s="22"/>
       <c r="B388" s="22"/>
       <c r="C388" s="22"/>
@@ -4196,7 +4215,7 @@
       <c r="F388" s="22"/>
       <c r="G388" s="22"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:7" ht="15.75" customHeight="1">
       <c r="A389" s="22"/>
       <c r="B389" s="22"/>
       <c r="C389" s="22"/>
@@ -4205,7 +4224,7 @@
       <c r="F389" s="22"/>
       <c r="G389" s="22"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:7" ht="15.75" customHeight="1">
       <c r="A390" s="22"/>
       <c r="B390" s="22"/>
       <c r="C390" s="22"/>
@@ -4214,7 +4233,7 @@
       <c r="F390" s="22"/>
       <c r="G390" s="22"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:7" ht="15.75" customHeight="1">
       <c r="A391" s="22"/>
       <c r="B391" s="22"/>
       <c r="C391" s="22"/>
@@ -4223,7 +4242,7 @@
       <c r="F391" s="22"/>
       <c r="G391" s="22"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:7" ht="15.75" customHeight="1">
       <c r="A392" s="22"/>
       <c r="B392" s="22"/>
       <c r="C392" s="22"/>
@@ -4232,7 +4251,7 @@
       <c r="F392" s="22"/>
       <c r="G392" s="22"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:7" ht="15.75" customHeight="1">
       <c r="A393" s="22"/>
       <c r="B393" s="22"/>
       <c r="C393" s="22"/>
@@ -4241,7 +4260,7 @@
       <c r="F393" s="22"/>
       <c r="G393" s="22"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:7" ht="15.75" customHeight="1">
       <c r="A394" s="22"/>
       <c r="B394" s="22"/>
       <c r="C394" s="22"/>
@@ -4250,7 +4269,7 @@
       <c r="F394" s="22"/>
       <c r="G394" s="22"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:7" ht="15.75" customHeight="1">
       <c r="A395" s="22"/>
       <c r="B395" s="22"/>
       <c r="C395" s="22"/>
@@ -4259,7 +4278,7 @@
       <c r="F395" s="22"/>
       <c r="G395" s="22"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:7" ht="15.75" customHeight="1">
       <c r="A396" s="22"/>
       <c r="B396" s="22"/>
       <c r="C396" s="22"/>
@@ -4268,7 +4287,7 @@
       <c r="F396" s="22"/>
       <c r="G396" s="22"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:7" ht="15.75" customHeight="1">
       <c r="A397" s="22"/>
       <c r="B397" s="22"/>
       <c r="C397" s="22"/>
@@ -4277,7 +4296,7 @@
       <c r="F397" s="22"/>
       <c r="G397" s="22"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:7" ht="15.75" customHeight="1">
       <c r="A398" s="22"/>
       <c r="B398" s="22"/>
       <c r="C398" s="22"/>
@@ -4286,7 +4305,7 @@
       <c r="F398" s="22"/>
       <c r="G398" s="22"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:7" ht="15.75" customHeight="1">
       <c r="A399" s="22"/>
       <c r="B399" s="22"/>
       <c r="C399" s="22"/>
@@ -4295,7 +4314,7 @@
       <c r="F399" s="22"/>
       <c r="G399" s="22"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:7" ht="15.75" customHeight="1">
       <c r="A400" s="22"/>
       <c r="B400" s="22"/>
       <c r="C400" s="22"/>
@@ -4304,7 +4323,7 @@
       <c r="F400" s="22"/>
       <c r="G400" s="22"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:7" ht="15.75" customHeight="1">
       <c r="A401" s="22"/>
       <c r="B401" s="22"/>
       <c r="C401" s="22"/>
@@ -4313,7 +4332,7 @@
       <c r="F401" s="22"/>
       <c r="G401" s="22"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:7" ht="15.75" customHeight="1">
       <c r="A402" s="22"/>
       <c r="B402" s="22"/>
       <c r="C402" s="22"/>
@@ -4322,7 +4341,7 @@
       <c r="F402" s="22"/>
       <c r="G402" s="22"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:7" ht="15.75" customHeight="1">
       <c r="A403" s="22"/>
       <c r="B403" s="22"/>
       <c r="C403" s="22"/>
@@ -4331,7 +4350,7 @@
       <c r="F403" s="22"/>
       <c r="G403" s="22"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:7" ht="15.75" customHeight="1">
       <c r="A404" s="22"/>
       <c r="B404" s="22"/>
       <c r="C404" s="22"/>
@@ -4340,7 +4359,7 @@
       <c r="F404" s="22"/>
       <c r="G404" s="22"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:7" ht="15.75" customHeight="1">
       <c r="A405" s="22"/>
       <c r="B405" s="22"/>
       <c r="C405" s="22"/>
@@ -4349,7 +4368,7 @@
       <c r="F405" s="22"/>
       <c r="G405" s="22"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:7" ht="15.75" customHeight="1">
       <c r="A406" s="22"/>
       <c r="B406" s="22"/>
       <c r="C406" s="22"/>
@@ -4358,7 +4377,7 @@
       <c r="F406" s="22"/>
       <c r="G406" s="22"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:7" ht="15.75" customHeight="1">
       <c r="A407" s="22"/>
       <c r="B407" s="22"/>
       <c r="C407" s="22"/>
@@ -4367,7 +4386,7 @@
       <c r="F407" s="22"/>
       <c r="G407" s="22"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:7" ht="15.75" customHeight="1">
       <c r="A408" s="22"/>
       <c r="B408" s="22"/>
       <c r="C408" s="22"/>
@@ -4376,7 +4395,7 @@
       <c r="F408" s="22"/>
       <c r="G408" s="22"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:7" ht="15.75" customHeight="1">
       <c r="A409" s="22"/>
       <c r="B409" s="22"/>
       <c r="C409" s="22"/>
@@ -4385,7 +4404,7 @@
       <c r="F409" s="22"/>
       <c r="G409" s="22"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:7" ht="15.75" customHeight="1">
       <c r="A410" s="22"/>
       <c r="B410" s="22"/>
       <c r="C410" s="22"/>
@@ -4394,7 +4413,7 @@
       <c r="F410" s="22"/>
       <c r="G410" s="22"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="1:7" ht="15.75" customHeight="1">
       <c r="A411" s="22"/>
       <c r="B411" s="22"/>
       <c r="C411" s="22"/>
@@ -4403,7 +4422,7 @@
       <c r="F411" s="22"/>
       <c r="G411" s="22"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:7" ht="15.75" customHeight="1">
       <c r="A412" s="22"/>
       <c r="B412" s="22"/>
       <c r="C412" s="22"/>
@@ -4412,7 +4431,7 @@
       <c r="F412" s="22"/>
       <c r="G412" s="22"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:7" ht="15.75" customHeight="1">
       <c r="A413" s="22"/>
       <c r="B413" s="22"/>
       <c r="C413" s="22"/>
@@ -4421,7 +4440,7 @@
       <c r="F413" s="22"/>
       <c r="G413" s="22"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:7" ht="15.75" customHeight="1">
       <c r="A414" s="22"/>
       <c r="B414" s="22"/>
       <c r="C414" s="22"/>
@@ -4430,7 +4449,7 @@
       <c r="F414" s="22"/>
       <c r="G414" s="22"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:7" ht="15.75" customHeight="1">
       <c r="A415" s="22"/>
       <c r="B415" s="22"/>
       <c r="C415" s="22"/>
@@ -4439,7 +4458,7 @@
       <c r="F415" s="22"/>
       <c r="G415" s="22"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:7" ht="15.75" customHeight="1">
       <c r="A416" s="22"/>
       <c r="B416" s="22"/>
       <c r="C416" s="22"/>
@@ -4448,7 +4467,7 @@
       <c r="F416" s="22"/>
       <c r="G416" s="22"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:7" ht="15.75" customHeight="1">
       <c r="A417" s="22"/>
       <c r="B417" s="22"/>
       <c r="C417" s="22"/>
@@ -4457,7 +4476,7 @@
       <c r="F417" s="22"/>
       <c r="G417" s="22"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:7" ht="15.75" customHeight="1">
       <c r="A418" s="22"/>
       <c r="B418" s="22"/>
       <c r="C418" s="22"/>
@@ -4466,7 +4485,7 @@
       <c r="F418" s="22"/>
       <c r="G418" s="22"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:7" ht="15.75" customHeight="1">
       <c r="A419" s="22"/>
       <c r="B419" s="22"/>
       <c r="C419" s="22"/>
@@ -4475,7 +4494,7 @@
       <c r="F419" s="22"/>
       <c r="G419" s="22"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:7" ht="15.75" customHeight="1">
       <c r="A420" s="22"/>
       <c r="B420" s="22"/>
       <c r="C420" s="22"/>
@@ -4484,7 +4503,7 @@
       <c r="F420" s="22"/>
       <c r="G420" s="22"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:7" ht="15.75" customHeight="1">
       <c r="A421" s="22"/>
       <c r="B421" s="22"/>
       <c r="C421" s="22"/>
@@ -4493,7 +4512,7 @@
       <c r="F421" s="22"/>
       <c r="G421" s="22"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:7" ht="15.75" customHeight="1">
       <c r="A422" s="22"/>
       <c r="B422" s="22"/>
       <c r="C422" s="22"/>
@@ -4502,7 +4521,7 @@
       <c r="F422" s="22"/>
       <c r="G422" s="22"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:7" ht="15.75" customHeight="1">
       <c r="A423" s="22"/>
       <c r="B423" s="22"/>
       <c r="C423" s="22"/>
@@ -4511,7 +4530,7 @@
       <c r="F423" s="22"/>
       <c r="G423" s="22"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:7" ht="15.75" customHeight="1">
       <c r="A424" s="22"/>
       <c r="B424" s="22"/>
       <c r="C424" s="22"/>
@@ -4520,7 +4539,7 @@
       <c r="F424" s="22"/>
       <c r="G424" s="22"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:7" ht="15.75" customHeight="1">
       <c r="A425" s="22"/>
       <c r="B425" s="22"/>
       <c r="C425" s="22"/>
@@ -4529,7 +4548,7 @@
       <c r="F425" s="22"/>
       <c r="G425" s="22"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:7" ht="15.75" customHeight="1">
       <c r="A426" s="22"/>
       <c r="B426" s="22"/>
       <c r="C426" s="22"/>
@@ -4538,7 +4557,7 @@
       <c r="F426" s="22"/>
       <c r="G426" s="22"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:7" ht="15.75" customHeight="1">
       <c r="A427" s="22"/>
       <c r="B427" s="22"/>
       <c r="C427" s="22"/>
@@ -4547,7 +4566,7 @@
       <c r="F427" s="22"/>
       <c r="G427" s="22"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:7" ht="15.75" customHeight="1">
       <c r="A428" s="22"/>
       <c r="B428" s="22"/>
       <c r="C428" s="22"/>
@@ -4556,7 +4575,7 @@
       <c r="F428" s="22"/>
       <c r="G428" s="22"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:7" ht="15.75" customHeight="1">
       <c r="A429" s="22"/>
       <c r="B429" s="22"/>
       <c r="C429" s="22"/>
@@ -4565,7 +4584,7 @@
       <c r="F429" s="22"/>
       <c r="G429" s="22"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:7" ht="15.75" customHeight="1">
       <c r="A430" s="22"/>
       <c r="B430" s="22"/>
       <c r="C430" s="22"/>
@@ -4574,7 +4593,7 @@
       <c r="F430" s="22"/>
       <c r="G430" s="22"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:7" ht="15.75" customHeight="1">
       <c r="A431" s="22"/>
       <c r="B431" s="22"/>
       <c r="C431" s="22"/>
@@ -4583,7 +4602,7 @@
       <c r="F431" s="22"/>
       <c r="G431" s="22"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:7" ht="15.75" customHeight="1">
       <c r="A432" s="22"/>
       <c r="B432" s="22"/>
       <c r="C432" s="22"/>
@@ -4592,7 +4611,7 @@
       <c r="F432" s="22"/>
       <c r="G432" s="22"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:7" ht="15.75" customHeight="1">
       <c r="A433" s="22"/>
       <c r="B433" s="22"/>
       <c r="C433" s="22"/>
@@ -4601,7 +4620,7 @@
       <c r="F433" s="22"/>
       <c r="G433" s="22"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:7" ht="15.75" customHeight="1">
       <c r="A434" s="22"/>
       <c r="B434" s="22"/>
       <c r="C434" s="22"/>
@@ -4610,7 +4629,7 @@
       <c r="F434" s="22"/>
       <c r="G434" s="22"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:7" ht="15.75" customHeight="1">
       <c r="A435" s="22"/>
       <c r="B435" s="22"/>
       <c r="C435" s="22"/>
@@ -4619,7 +4638,7 @@
       <c r="F435" s="22"/>
       <c r="G435" s="22"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:7" ht="15.75" customHeight="1">
       <c r="A436" s="22"/>
       <c r="B436" s="22"/>
       <c r="C436" s="22"/>
@@ -4628,7 +4647,7 @@
       <c r="F436" s="22"/>
       <c r="G436" s="22"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:7" ht="15.75" customHeight="1">
       <c r="A437" s="22"/>
       <c r="B437" s="22"/>
       <c r="C437" s="22"/>
@@ -4637,7 +4656,7 @@
       <c r="F437" s="22"/>
       <c r="G437" s="22"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:7" ht="15.75" customHeight="1">
       <c r="A438" s="22"/>
       <c r="B438" s="22"/>
       <c r="C438" s="22"/>
@@ -4646,7 +4665,7 @@
       <c r="F438" s="22"/>
       <c r="G438" s="22"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:7" ht="15.75" customHeight="1">
       <c r="A439" s="22"/>
       <c r="B439" s="22"/>
       <c r="C439" s="22"/>
@@ -4655,332 +4674,332 @@
       <c r="F439" s="22"/>
       <c r="G439" s="22"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="23"/>
-      <c r="B440" s="23"/>
-      <c r="C440" s="23"/>
-      <c r="D440" s="23"/>
-      <c r="E440" s="23"/>
-      <c r="F440" s="23"/>
-      <c r="G440" s="23"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="23"/>
-      <c r="B441" s="23"/>
-      <c r="C441" s="23"/>
-      <c r="D441" s="23"/>
-      <c r="E441" s="23"/>
-      <c r="F441" s="23"/>
-      <c r="G441" s="23"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="23"/>
-      <c r="B442" s="23"/>
-      <c r="C442" s="23"/>
-      <c r="D442" s="23"/>
-      <c r="E442" s="23"/>
-      <c r="F442" s="23"/>
-      <c r="G442" s="23"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="23"/>
-      <c r="B443" s="23"/>
-      <c r="C443" s="23"/>
-      <c r="D443" s="23"/>
-      <c r="E443" s="23"/>
-      <c r="F443" s="23"/>
-      <c r="G443" s="23"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="23"/>
-      <c r="B444" s="23"/>
-      <c r="C444" s="23"/>
-      <c r="D444" s="23"/>
-      <c r="E444" s="23"/>
-      <c r="F444" s="23"/>
-      <c r="G444" s="23"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="23"/>
-      <c r="B445" s="23"/>
-      <c r="C445" s="23"/>
-      <c r="D445" s="23"/>
-      <c r="E445" s="23"/>
-      <c r="F445" s="23"/>
-      <c r="G445" s="23"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="23"/>
-      <c r="B446" s="23"/>
-      <c r="C446" s="23"/>
-      <c r="D446" s="23"/>
-      <c r="E446" s="23"/>
-      <c r="F446" s="23"/>
-      <c r="G446" s="23"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="23"/>
-      <c r="B447" s="23"/>
-      <c r="C447" s="23"/>
-      <c r="D447" s="23"/>
-      <c r="E447" s="23"/>
-      <c r="F447" s="23"/>
-      <c r="G447" s="23"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="23"/>
-      <c r="B448" s="23"/>
-      <c r="C448" s="23"/>
-      <c r="D448" s="23"/>
-      <c r="E448" s="23"/>
-      <c r="F448" s="23"/>
-      <c r="G448" s="23"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="23"/>
-      <c r="B449" s="23"/>
-      <c r="C449" s="23"/>
-      <c r="D449" s="23"/>
-      <c r="E449" s="23"/>
-      <c r="F449" s="23"/>
-      <c r="G449" s="23"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="23"/>
-      <c r="B450" s="23"/>
-      <c r="C450" s="23"/>
-      <c r="D450" s="23"/>
-      <c r="E450" s="23"/>
-      <c r="F450" s="23"/>
-      <c r="G450" s="23"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="23"/>
-      <c r="B451" s="23"/>
-      <c r="C451" s="23"/>
-      <c r="D451" s="23"/>
-      <c r="E451" s="23"/>
-      <c r="F451" s="23"/>
-      <c r="G451" s="23"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="23"/>
-      <c r="B452" s="23"/>
-      <c r="C452" s="23"/>
-      <c r="D452" s="23"/>
-      <c r="E452" s="23"/>
-      <c r="F452" s="23"/>
-      <c r="G452" s="23"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="23"/>
-      <c r="B453" s="23"/>
-      <c r="C453" s="23"/>
-      <c r="D453" s="23"/>
-      <c r="E453" s="23"/>
-      <c r="F453" s="23"/>
-      <c r="G453" s="23"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="23"/>
-      <c r="B454" s="23"/>
-      <c r="C454" s="23"/>
-      <c r="D454" s="23"/>
-      <c r="E454" s="23"/>
-      <c r="F454" s="23"/>
-      <c r="G454" s="23"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="23"/>
-      <c r="B455" s="23"/>
-      <c r="C455" s="23"/>
-      <c r="D455" s="23"/>
-      <c r="E455" s="23"/>
-      <c r="F455" s="23"/>
-      <c r="G455" s="23"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="23"/>
-      <c r="B456" s="23"/>
-      <c r="C456" s="23"/>
-      <c r="D456" s="23"/>
-      <c r="E456" s="23"/>
-      <c r="F456" s="23"/>
-      <c r="G456" s="23"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="23"/>
-      <c r="B457" s="23"/>
-      <c r="C457" s="23"/>
-      <c r="D457" s="23"/>
-      <c r="E457" s="23"/>
-      <c r="F457" s="23"/>
-      <c r="G457" s="23"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="23"/>
-      <c r="B458" s="23"/>
-      <c r="C458" s="23"/>
-      <c r="D458" s="23"/>
-      <c r="E458" s="23"/>
-      <c r="F458" s="23"/>
-      <c r="G458" s="23"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="23"/>
-      <c r="B459" s="23"/>
-      <c r="C459" s="23"/>
-      <c r="D459" s="23"/>
-      <c r="E459" s="23"/>
-      <c r="F459" s="23"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="23"/>
-      <c r="B460" s="23"/>
-      <c r="C460" s="23"/>
-      <c r="D460" s="23"/>
-      <c r="E460" s="23"/>
-      <c r="F460" s="23"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="23"/>
-      <c r="B461" s="23"/>
-      <c r="C461" s="23"/>
-      <c r="D461" s="23"/>
-      <c r="E461" s="23"/>
-      <c r="F461" s="23"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="23"/>
-      <c r="B462" s="23"/>
-      <c r="C462" s="23"/>
-      <c r="D462" s="23"/>
-      <c r="E462" s="23"/>
-      <c r="F462" s="23"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="23"/>
-      <c r="B463" s="23"/>
-      <c r="C463" s="23"/>
-      <c r="D463" s="23"/>
-      <c r="E463" s="23"/>
-      <c r="F463" s="23"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="23"/>
-      <c r="B464" s="23"/>
-      <c r="C464" s="23"/>
-      <c r="D464" s="23"/>
-      <c r="E464" s="23"/>
-      <c r="F464" s="23"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="23"/>
-      <c r="B465" s="23"/>
-      <c r="C465" s="23"/>
-      <c r="D465" s="23"/>
-      <c r="E465" s="23"/>
-      <c r="F465" s="23"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="23"/>
-      <c r="B466" s="23"/>
-      <c r="C466" s="23"/>
-      <c r="D466" s="23"/>
-      <c r="E466" s="23"/>
-      <c r="F466" s="23"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="23"/>
-      <c r="B467" s="23"/>
-      <c r="C467" s="23"/>
-      <c r="D467" s="23"/>
-      <c r="E467" s="23"/>
-      <c r="F467" s="23"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="23"/>
-      <c r="B468" s="23"/>
-      <c r="C468" s="23"/>
-      <c r="D468" s="23"/>
-      <c r="E468" s="23"/>
-      <c r="F468" s="23"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="23"/>
-      <c r="B469" s="23"/>
-      <c r="C469" s="23"/>
-      <c r="D469" s="23"/>
-      <c r="E469" s="23"/>
-      <c r="F469" s="23"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="23"/>
-      <c r="B470" s="23"/>
-      <c r="C470" s="23"/>
-      <c r="D470" s="23"/>
-      <c r="E470" s="23"/>
-      <c r="F470" s="23"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="23"/>
-      <c r="B471" s="23"/>
-      <c r="C471" s="23"/>
-      <c r="D471" s="23"/>
-      <c r="E471" s="23"/>
-      <c r="F471" s="23"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="23"/>
-      <c r="B472" s="23"/>
-      <c r="C472" s="23"/>
-      <c r="D472" s="23"/>
-      <c r="E472" s="23"/>
-      <c r="F472" s="23"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="23"/>
-      <c r="B473" s="23"/>
-      <c r="C473" s="23"/>
-      <c r="D473" s="23"/>
-      <c r="E473" s="23"/>
-      <c r="F473" s="23"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="23"/>
-      <c r="B474" s="23"/>
-      <c r="C474" s="23"/>
-      <c r="D474" s="23"/>
-      <c r="E474" s="23"/>
-      <c r="F474" s="23"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="23"/>
-      <c r="B475" s="23"/>
-      <c r="C475" s="23"/>
-      <c r="D475" s="23"/>
-      <c r="E475" s="23"/>
-      <c r="F475" s="23"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="23"/>
-      <c r="B476" s="23"/>
-      <c r="C476" s="23"/>
-      <c r="D476" s="23"/>
-      <c r="E476" s="23"/>
-      <c r="F476" s="23"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="18"/>
-      <c r="B477" s="19"/>
-      <c r="C477" s="19"/>
-      <c r="D477" s="18"/>
-      <c r="E477" s="18"/>
-      <c r="F477" s="18"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="440" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A440" s="5"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+    </row>
+    <row r="441" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A441" s="5"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A442" s="5"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+    </row>
+    <row r="443" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A443" s="5"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A444" s="5"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+    </row>
+    <row r="445" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A445" s="5"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
+    </row>
+    <row r="446" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A446" s="5"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A447" s="5"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+    </row>
+    <row r="448" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A448" s="5"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+    </row>
+    <row r="449" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A449" s="5"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+    </row>
+    <row r="450" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A450" s="5"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A451" s="5"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+    </row>
+    <row r="452" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A452" s="5"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A453" s="5"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+    </row>
+    <row r="454" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A454" s="5"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A455" s="5"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A456" s="5"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A457" s="5"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A458" s="5"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A459" s="5"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A460" s="5"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A461" s="5"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A462" s="5"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A463" s="5"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A464" s="5"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+    </row>
+    <row r="465" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A465" s="5"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+    </row>
+    <row r="466" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A466" s="5"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+    </row>
+    <row r="467" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A467" s="5"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+    </row>
+    <row r="468" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A468" s="5"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+    </row>
+    <row r="469" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A469" s="5"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+    </row>
+    <row r="470" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A470" s="5"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+    </row>
+    <row r="471" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A471" s="5"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+    </row>
+    <row r="472" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A472" s="5"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+    </row>
+    <row r="473" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A473" s="5"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+    </row>
+    <row r="474" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A474" s="5"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+    </row>
+    <row r="475" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A475" s="5"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+    </row>
+    <row r="476" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A476" s="5"/>
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+    </row>
+    <row r="477" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A477" s="19"/>
+      <c r="B477" s="18"/>
+      <c r="C477" s="18"/>
+      <c r="D477" s="19"/>
+      <c r="E477" s="19"/>
+      <c r="F477" s="19"/>
+    </row>
+    <row r="478" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="479" spans="1:6" ht="15.75" customHeight="1"/>
+    <row r="480" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="481" ht="15.75" customHeight="1"/>
     <row r="482" ht="15.75" customHeight="1"/>
     <row r="483" ht="15.75" customHeight="1"/>
@@ -5512,9 +5531,7 @@
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:G4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>